--- a/wkw-filmography.xlsx
+++ b/wkw-filmography.xlsx
@@ -1,37 +1,147 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a502e43f79766994/Documents/Projects/wkw-hack/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_C975DE47C570460E6235547658217EB8D50DAA03" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="test" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="test" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+  <si>
+    <t>Tong Wars ()</t>
+  </si>
+  <si>
+    <t>"Blossoms Shanghai" ()</t>
+  </si>
+  <si>
+    <t>The Grandmaster</t>
+  </si>
+  <si>
+    <t>Déjà Vu</t>
+  </si>
+  <si>
+    <t>Déjà Vu: The Making of</t>
+  </si>
+  <si>
+    <t>Mask</t>
+  </si>
+  <si>
+    <t>Lancôme: Hypnôse Parfum Femme</t>
+  </si>
+  <si>
+    <t>Lancôme: Hypnôse Parfum Homme</t>
+  </si>
+  <si>
+    <t>Midnight Poison</t>
+  </si>
+  <si>
+    <t>There's Only One Sun</t>
+  </si>
+  <si>
+    <t>To Each His Own Cinema</t>
+  </si>
+  <si>
+    <t>My Blueberry Nights</t>
+  </si>
+  <si>
+    <t>Dior: Capture Totale</t>
+  </si>
+  <si>
+    <t>Eros</t>
+  </si>
+  <si>
+    <t>2046</t>
+  </si>
+  <si>
+    <t>The Hire</t>
+  </si>
+  <si>
+    <t>La rencontre</t>
+  </si>
+  <si>
+    <t>Six Days</t>
+  </si>
+  <si>
+    <t>@ in the Mood for Love</t>
+  </si>
+  <si>
+    <t>Dans la ville</t>
+  </si>
+  <si>
+    <t>The Follow</t>
+  </si>
+  <si>
+    <t>Hua yang de nian hua</t>
+  </si>
+  <si>
+    <t>Un matin partout dans le monde</t>
+  </si>
+  <si>
+    <t>In the Mood for Love</t>
+  </si>
+  <si>
+    <t>Motorola</t>
+  </si>
+  <si>
+    <t>Happy Together</t>
+  </si>
+  <si>
+    <t>wkw/tk/1996@7'55''hk.net</t>
+  </si>
+  <si>
+    <t>Fallen Angels</t>
+  </si>
+  <si>
+    <t>Ashes of Time</t>
+  </si>
+  <si>
+    <t>Chungking Express</t>
+  </si>
+  <si>
+    <t>The King of Ads, Part 2</t>
+  </si>
+  <si>
+    <t>Days of Being Wild</t>
+  </si>
+  <si>
+    <t>As Tears Go By</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +156,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,352 +480,282 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="n">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Tong Wars ()</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>"Blossoms Shanghai" ()</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>The Grandmaster</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Déjà Vu</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Déjà Vu: The Making of</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Mask</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Lancôme: Hypnôse Parfum Femme</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Lancôme: Hypnôse Parfum Homme</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Midnight Poison</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>There's Only One Sun</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>To Each His Own Cinema</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>My Blueberry Nights</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Dior: Capture Totale</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Eros</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2046</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>The Hire</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>La rencontre</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Six Days</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>@ in the Mood for Love</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Dans la ville</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>The Follow</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Hua yang de nian hua</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Un matin partout dans le monde</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>In the Mood for Love</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Motorola</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Happy Together</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>wkw/tk/1996@7'55''hk.net</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Fallen Angels</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Ashes of Time</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Chungking Express</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>The King of Ads, Part 2</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Days of Being Wild</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>As Tears Go By</t>
-        </is>
+      <c r="B34" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/wkw-filmography.xlsx
+++ b/wkw-filmography.xlsx
@@ -1,147 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a502e43f79766994/Documents/Projects/wkw-hack/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_C975DE47C570460E6235547658217EB8D50DAA03" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="test" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="test" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
-  <si>
-    <t>Tong Wars ()</t>
-  </si>
-  <si>
-    <t>"Blossoms Shanghai" ()</t>
-  </si>
-  <si>
-    <t>The Grandmaster</t>
-  </si>
-  <si>
-    <t>Déjà Vu</t>
-  </si>
-  <si>
-    <t>Déjà Vu: The Making of</t>
-  </si>
-  <si>
-    <t>Mask</t>
-  </si>
-  <si>
-    <t>Lancôme: Hypnôse Parfum Femme</t>
-  </si>
-  <si>
-    <t>Lancôme: Hypnôse Parfum Homme</t>
-  </si>
-  <si>
-    <t>Midnight Poison</t>
-  </si>
-  <si>
-    <t>There's Only One Sun</t>
-  </si>
-  <si>
-    <t>To Each His Own Cinema</t>
-  </si>
-  <si>
-    <t>My Blueberry Nights</t>
-  </si>
-  <si>
-    <t>Dior: Capture Totale</t>
-  </si>
-  <si>
-    <t>Eros</t>
-  </si>
-  <si>
-    <t>2046</t>
-  </si>
-  <si>
-    <t>The Hire</t>
-  </si>
-  <si>
-    <t>La rencontre</t>
-  </si>
-  <si>
-    <t>Six Days</t>
-  </si>
-  <si>
-    <t>@ in the Mood for Love</t>
-  </si>
-  <si>
-    <t>Dans la ville</t>
-  </si>
-  <si>
-    <t>The Follow</t>
-  </si>
-  <si>
-    <t>Hua yang de nian hua</t>
-  </si>
-  <si>
-    <t>Un matin partout dans le monde</t>
-  </si>
-  <si>
-    <t>In the Mood for Love</t>
-  </si>
-  <si>
-    <t>Motorola</t>
-  </si>
-  <si>
-    <t>Happy Together</t>
-  </si>
-  <si>
-    <t>wkw/tk/1996@7'55''hk.net</t>
-  </si>
-  <si>
-    <t>Fallen Angels</t>
-  </si>
-  <si>
-    <t>Ashes of Time</t>
-  </si>
-  <si>
-    <t>Chungking Express</t>
-  </si>
-  <si>
-    <t>The King of Ads, Part 2</t>
-  </si>
-  <si>
-    <t>Days of Being Wild</t>
-  </si>
-  <si>
-    <t>As Tears Go By</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -156,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -480,282 +420,352 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B1" s="1">
+    <row r="1">
+      <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Tong Wars ()</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>"Blossoms Shanghai" ()</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>The Grandmaster</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Déjà Vu</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Déjà Vu: The Making of</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Mask</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Lancôme: Hypnôse Parfum Femme</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Lancôme: Hypnôse Parfum Homme</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Midnight Poison</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>There's Only One Sun</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>To Each His Own Cinema</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>My Blueberry Nights</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Dior: Capture Totale</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Eros</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2046</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>The Hire</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>La rencontre</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Six Days</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>@ in the Mood for Love</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Dans la ville</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>The Follow</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Hua yang de nian hua</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Un matin partout dans le monde</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>In the Mood for Love</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Motorola</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Happy Together</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>wkw/tk/1996@7'55''hk.net</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Fallen Angels</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Ashes of Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Chungking Express</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>The King of Ads, Part 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Days of Being Wild</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="s">
-        <v>32</v>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>As Tears Go By</t>
+        </is>
       </c>
     </row>
   </sheetData>
